--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -82,12 +82,12 @@
     <t>better</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -103,10 +103,10 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>share</t>
@@ -936,25 +936,25 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6695278969957081</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L14">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="N14">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O14">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -962,25 +962,25 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6595744680851063</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="N15">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1118,25 +1118,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5349544072948328</v>
+        <v>0.53125</v>
       </c>
       <c r="L21">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>153</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,25 +1144,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.53125</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="10:17">
